--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhilash.sharma\Desktop\Abhilash04_GitRepo\FEAT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhilash.sharma\Desktop\Github Pages\SeleniumPythonHybridFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA44AF4-28B7-4B00-8ED1-DBC78C7729C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9DBA36-4CFA-4157-B356-3471B172822D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{075C9FD4-D79F-4B8C-A89A-47472D94496E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestData!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestData!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>TC_ID</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Verify invalid number addition (Failing it intentionally)</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -492,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803FD85-1850-4900-80B5-43D9A39A0AAF}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J1048567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,11 +515,12 @@
     <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,10 +546,13 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -559,10 +569,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -582,10 +595,13 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -609,10 +625,13 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -636,11 +655,22 @@
         <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="1048567" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1048567" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{BDBED8EA-B90F-4F26-8DD2-E4029559F9F8}"/>
+  <autoFilter ref="A1:J1" xr:uid="{BDBED8EA-B90F-4F26-8DD2-E4029559F9F8}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{5BFFAA7C-BC49-460F-AB13-07FDA0BD3E34}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
